--- a/data/trans_orig/P15DS1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15DS1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12E8A7FE-C287-45EC-876A-976860BAF643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84E46E81-C86E-4225-97AE-CDB31EED2C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{18E4879D-3C98-44C1-91A4-B60E6EDD3757}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4707F394-BED1-43F3-8E4B-4E16C3CD9985}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="562">
   <si>
     <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2007 (Tasa respuesta: 3,21%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>16,92%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
   </si>
   <si>
     <t>15,11%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
   </si>
   <si>
     <t>Consultar a un médico o enfermera (fuera de un hospital o cl</t>
@@ -107,28 +107,28 @@
     <t>12,02%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
   </si>
   <si>
     <t>9,93%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
   </si>
   <si>
     <t>10,67%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
   </si>
   <si>
     <t>Acudir a un servicio de urgencias de un hospital o clínica</t>
@@ -137,28 +137,28 @@
     <t>51,54%</t>
   </si>
   <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
   </si>
   <si>
     <t>67,09%</t>
   </si>
   <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
   </si>
   <si>
     <t>61,55%</t>
   </si>
   <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
   </si>
   <si>
     <t>Ser ingresado en un hospital o clínica</t>
@@ -167,28 +167,28 @@
     <t>19,52%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
   </si>
   <si>
     <t>12,66%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
   </si>
   <si>
     <t>100%</t>
@@ -200,1510 +200,1531 @@
     <t>25,79%</t>
   </si>
   <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2012 (Tasa respuesta: 7,85%)</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2015 (Tasa respuesta: 5,54%)</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
     <t>17,18%</t>
   </si>
   <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
   </si>
   <si>
     <t>16,38%</t>
   </si>
   <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2023 (Tasa respuesta: 6,53%)</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
   </si>
   <si>
     <t>38,47%</t>
   </si>
   <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>15,12%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>42,17%</t>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>16,14%</t>
   </si>
   <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
   </si>
   <si>
     <t>18,72%</t>
   </si>
   <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2012 (Tasa respuesta: 7,85%)</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2015 (Tasa respuesta: 5,54%)</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2023 (Tasa respuesta: 6,53%)</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
   </si>
   <si>
     <t>65,86%</t>
   </si>
   <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
     <t>50,63%</t>
   </si>
   <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
   </si>
   <si>
     <t>54,61%</t>
   </si>
   <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
   </si>
   <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
   </si>
   <si>
     <t>11,49%</t>
   </si>
   <si>
-    <t>16,67%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
   </si>
   <si>
     <t>13,9%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A7F9C9-A924-42E4-992A-C7D1A56C6D29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8E2A45-8464-42C1-B27B-332E34045054}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2771,10 +2792,10 @@
         <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -2783,13 +2804,13 @@
         <v>11174</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,13 +2825,13 @@
         <v>2820</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -2819,13 +2840,13 @@
         <v>903</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>83</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -2834,13 +2855,13 @@
         <v>3723</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,13 +2876,13 @@
         <v>4419</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2870,13 +2891,13 @@
         <v>9341</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2885,13 +2906,13 @@
         <v>13760</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2927,13 @@
         <v>3980</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2924,10 +2945,10 @@
         <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -2936,13 +2957,13 @@
         <v>3980</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,7 +3031,7 @@
         <v>32687</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>123</v>
@@ -3274,7 +3295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A572DC3-43EF-413C-8409-ACA960C943A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A4E2F6-983C-49EC-9572-D9B08B2169C6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3416,10 +3437,10 @@
         <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -3428,13 +3449,13 @@
         <v>46776</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,13 +3470,13 @@
         <v>6737</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -3464,13 +3485,13 @@
         <v>9090</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -3479,13 +3500,13 @@
         <v>15827</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,13 +3521,13 @@
         <v>43094</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H6" s="7">
         <v>55</v>
@@ -3515,13 +3536,13 @@
         <v>58173</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>94</v>
@@ -3530,13 +3551,13 @@
         <v>101268</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3572,13 @@
         <v>10869</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3569,10 +3590,10 @@
         <v>27</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -3581,13 +3602,13 @@
         <v>22802</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3676,13 @@
         <v>47436</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H9" s="7">
         <v>31</v>
@@ -3670,13 +3691,13 @@
         <v>33697</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M9" s="7">
         <v>79</v>
@@ -3685,13 +3706,13 @@
         <v>81133</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3727,13 @@
         <v>11278</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3721,13 +3742,13 @@
         <v>9928</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -3736,13 +3757,13 @@
         <v>21206</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3778,13 @@
         <v>110922</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -3772,13 +3793,13 @@
         <v>62701</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>167</v>
@@ -3787,13 +3808,13 @@
         <v>173622</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3829,13 @@
         <v>12379</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -3823,13 +3844,13 @@
         <v>7377</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -3838,13 +3859,13 @@
         <v>19756</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3933,13 @@
         <v>8874</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -3927,13 +3948,13 @@
         <v>5280</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -4047,10 +4068,10 @@
         <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,10 +4089,10 @@
         <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4080,13 +4101,13 @@
         <v>998</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -4095,13 +4116,13 @@
         <v>998</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4190,13 @@
         <v>70417</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -4184,13 +4205,13 @@
         <v>71646</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>130</v>
+        <v>263</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M19" s="7">
         <v>137</v>
@@ -4199,13 +4220,13 @@
         <v>142063</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4241,13 @@
         <v>23180</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -4235,13 +4256,13 @@
         <v>21840</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>273</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -4250,13 +4271,13 @@
         <v>45020</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,10 +4292,10 @@
         <v>166030</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>143</v>
@@ -4286,13 +4307,13 @@
         <v>140550</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M21" s="7">
         <v>289</v>
@@ -4301,13 +4322,13 @@
         <v>306579</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>282</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4343,13 @@
         <v>23248</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -4337,13 +4358,13 @@
         <v>20308</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -4352,13 +4373,13 @@
         <v>43556</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,7 +4454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A81C2F4-3E30-4C65-BD3A-E14602ECCD8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB084BC-43EF-4283-95EB-5EA3BC314446}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4450,7 +4471,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4557,13 +4578,13 @@
         <v>7295</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>294</v>
+        <v>132</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4572,13 +4593,13 @@
         <v>13376</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4587,13 +4608,13 @@
         <v>20672</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>53</v>
+        <v>300</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,13 +4629,13 @@
         <v>9963</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -4623,13 +4644,13 @@
         <v>10544</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -4638,13 +4659,13 @@
         <v>20507</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4680,13 @@
         <v>22089</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -4674,13 +4695,13 @@
         <v>42815</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M6" s="7">
         <v>57</v>
@@ -4689,13 +4710,13 @@
         <v>64904</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,10 +4734,10 @@
         <v>149</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4725,13 +4746,13 @@
         <v>7867</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -4740,13 +4761,13 @@
         <v>14223</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,13 +4835,13 @@
         <v>21541</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -4829,13 +4850,13 @@
         <v>10581</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -4844,13 +4865,13 @@
         <v>32122</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4886,13 @@
         <v>11664</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4880,13 +4901,13 @@
         <v>6047</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -4895,13 +4916,13 @@
         <v>17711</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>342</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>343</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4937,13 @@
         <v>77915</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H11" s="7">
         <v>58</v>
@@ -4931,13 +4952,13 @@
         <v>61083</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M11" s="7">
         <v>131</v>
@@ -4946,13 +4967,13 @@
         <v>138999</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4988,13 @@
         <v>10059</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -4982,13 +5003,13 @@
         <v>6946</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -4997,13 +5018,13 @@
         <v>17005</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5092,13 @@
         <v>3552</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5086,13 +5107,13 @@
         <v>3146</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -5101,13 +5122,13 @@
         <v>6698</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>369</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,13 +5143,13 @@
         <v>1926</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>83</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -5137,13 +5158,13 @@
         <v>1862</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>83</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -5152,13 +5173,13 @@
         <v>3788</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,13 +5194,13 @@
         <v>19368</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -5188,13 +5209,13 @@
         <v>19791</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -5203,13 +5224,13 @@
         <v>39159</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5245,13 @@
         <v>5950</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -5239,13 +5260,13 @@
         <v>6208</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -5254,13 +5275,13 @@
         <v>12158</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,13 +5349,13 @@
         <v>32388</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>59</v>
+        <v>392</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -5343,13 +5364,13 @@
         <v>27103</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -5358,13 +5379,13 @@
         <v>59491</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,13 +5400,13 @@
         <v>23553</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>302</v>
+        <v>400</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>401</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>11</v>
+        <v>402</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -5394,13 +5415,13 @@
         <v>18453</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -5409,10 +5430,10 @@
         <v>42006</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>406</v>
+        <v>191</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>407</v>
@@ -5484,10 +5505,10 @@
         <v>417</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>62</v>
+        <v>418</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -5496,13 +5517,13 @@
         <v>21020</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>308</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -5592,7 +5613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BBE573-F475-42E9-A68E-6A889A6E45C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3477B4BD-128E-400D-9D26-F0426C2D00A1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5749,10 +5770,10 @@
         <v>432</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,10 +5788,10 @@
         <v>5485</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>436</v>
@@ -5848,13 +5869,13 @@
         <v>47181</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>71</v>
+        <v>449</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,13 +5890,13 @@
         <v>10923</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -5884,13 +5905,13 @@
         <v>13423</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -5899,13 +5920,13 @@
         <v>24346</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +5994,13 @@
         <v>13770</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>462</v>
+        <v>129</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -5991,7 +6012,7 @@
         <v>463</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>464</v>
@@ -6144,10 +6165,10 @@
         <v>489</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>342</v>
+        <v>490</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>398</v>
+        <v>491</v>
       </c>
       <c r="M12" s="7">
         <v>34</v>
@@ -6156,13 +6177,13 @@
         <v>28448</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6230,13 +6251,13 @@
         <v>7792</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>395</v>
+        <v>495</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -6245,13 +6266,13 @@
         <v>5556</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -6260,13 +6281,13 @@
         <v>13348</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,13 +6302,13 @@
         <v>1278</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>83</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="H15" s="7">
         <v>13</v>
@@ -6296,13 +6317,13 @@
         <v>9180</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="M15" s="7">
         <v>15</v>
@@ -6311,13 +6332,13 @@
         <v>10459</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>506</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6353,13 @@
         <v>19376</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>311</v>
+        <v>511</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -6347,13 +6368,13 @@
         <v>16977</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -6362,13 +6383,13 @@
         <v>36353</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6404,13 @@
         <v>5708</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>129</v>
+        <v>519</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -6398,13 +6419,13 @@
         <v>1902</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>522</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>519</v>
+        <v>397</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -6413,13 +6434,13 @@
         <v>7610</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>521</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,13 +6508,13 @@
         <v>32018</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="H19" s="7">
         <v>72</v>
@@ -6502,13 +6523,13 @@
         <v>44235</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -6517,13 +6538,13 @@
         <v>76253</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>334</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,13 +6559,13 @@
         <v>17347</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>80</v>
+        <v>536</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H20" s="7">
         <v>64</v>
@@ -6553,13 +6574,13 @@
         <v>43208</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>123</v>
+        <v>538</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="M20" s="7">
         <v>84</v>
@@ -6568,13 +6589,13 @@
         <v>60556</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,13 +6610,13 @@
         <v>120350</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H21" s="7">
         <v>180</v>
@@ -6604,13 +6625,13 @@
         <v>116896</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="M21" s="7">
         <v>296</v>
@@ -6619,13 +6640,13 @@
         <v>237246</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6640,13 +6661,13 @@
         <v>33874</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -6655,13 +6676,13 @@
         <v>26529</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>468</v>
+        <v>557</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -6670,13 +6691,13 @@
         <v>60404</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P15DS1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15DS1-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84E46E81-C86E-4225-97AE-CDB31EED2C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15A36E57-678E-498C-A01C-E16446B9C852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4707F394-BED1-43F3-8E4B-4E16C3CD9985}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{049D13A7-063A-4663-860A-6BD9A121B83E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="558">
   <si>
     <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2007 (Tasa respuesta: 3,21%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>16,92%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
   </si>
   <si>
     <t>15,11%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
   </si>
   <si>
     <t>Consultar a un médico o enfermera (fuera de un hospital o cl</t>
@@ -107,28 +107,28 @@
     <t>12,02%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
   </si>
   <si>
     <t>9,93%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
   </si>
   <si>
     <t>10,67%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
   </si>
   <si>
     <t>Acudir a un servicio de urgencias de un hospital o clínica</t>
@@ -137,28 +137,28 @@
     <t>51,54%</t>
   </si>
   <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
   </si>
   <si>
     <t>67,09%</t>
   </si>
   <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
   </si>
   <si>
     <t>61,55%</t>
   </si>
   <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
   </si>
   <si>
     <t>Ser ingresado en un hospital o clínica</t>
@@ -167,28 +167,25 @@
     <t>19,52%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
   </si>
   <si>
     <t>12,66%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
+    <t>6,32%</t>
   </si>
   <si>
     <t>100%</t>
@@ -200,1422 +197,1416 @@
     <t>25,79%</t>
   </si>
   <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
   </si>
   <si>
     <t>23,38%</t>
   </si>
   <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
+    <t>22,96%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2012 (Tasa respuesta: 7,85%)</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2016 (Tasa respuesta: 5,54%)</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2023 (Tasa respuesta: 6,53%)</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
     <t>8,84%</t>
   </si>
   <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2012 (Tasa respuesta: 7,85%)</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2015 (Tasa respuesta: 5,54%)</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2023 (Tasa respuesta: 6,53%)</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
     <t>27,42%</t>
   </si>
   <si>
@@ -1710,9 +1701,6 @@
   </si>
   <si>
     <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
   </si>
   <si>
     <t>16,29%</t>
@@ -2136,7 +2124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8E2A45-8464-42C1-B27B-332E34045054}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A125BA3-E250-4C35-8C9E-E9E838FA21A1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2449,7 +2437,7 @@
         <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,13 +2452,13 @@
         <v>25174</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>44</v>
@@ -2479,13 +2467,13 @@
         <v>45528</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>70</v>
@@ -2494,18 +2482,18 @@
         <v>70702</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2517,13 +2505,13 @@
         <v>20246</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -2532,13 +2520,13 @@
         <v>6296</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>26</v>
@@ -2547,13 +2535,13 @@
         <v>26543</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,13 +2556,13 @@
         <v>10525</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2583,13 +2571,13 @@
         <v>6732</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -2598,13 +2586,13 @@
         <v>17257</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,13 +2607,13 @@
         <v>39510</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -2634,13 +2622,13 @@
         <v>20993</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
@@ -2649,13 +2637,13 @@
         <v>60504</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,13 +2658,13 @@
         <v>8221</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -2685,13 +2673,13 @@
         <v>1021</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -2700,13 +2688,13 @@
         <v>9243</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2709,13 @@
         <v>78503</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -2736,13 +2724,13 @@
         <v>35042</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>110</v>
@@ -2751,18 +2739,18 @@
         <v>113546</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2774,13 +2762,13 @@
         <v>8181</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2789,13 +2777,13 @@
         <v>2992</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -2804,13 +2792,13 @@
         <v>11174</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,13 +2813,13 @@
         <v>2820</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -2840,13 +2828,13 @@
         <v>903</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -2855,13 +2843,13 @@
         <v>3723</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2864,13 @@
         <v>4419</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2891,13 +2879,13 @@
         <v>9341</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2906,13 +2894,13 @@
         <v>13760</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2915,13 @@
         <v>3980</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2942,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -2957,13 +2945,13 @@
         <v>3980</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,13 +2966,13 @@
         <v>19400</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -2993,13 +2981,13 @@
         <v>13236</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -3008,13 +2996,13 @@
         <v>32636</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3019,13 @@
         <v>32687</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -3046,13 +3034,13 @@
         <v>15712</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>48</v>
@@ -3061,13 +3049,13 @@
         <v>48399</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3070,13 @@
         <v>16370</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -3097,13 +3085,13 @@
         <v>12156</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -3112,13 +3100,13 @@
         <v>28526</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,13 +3121,13 @@
         <v>56905</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>58</v>
@@ -3148,13 +3136,13 @@
         <v>60878</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>114</v>
@@ -3163,13 +3151,13 @@
         <v>117783</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,13 +3172,13 @@
         <v>17115</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3199,13 +3187,13 @@
         <v>5060</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -3214,13 +3202,13 @@
         <v>22175</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3223,13 @@
         <v>123077</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>90</v>
@@ -3250,13 +3238,13 @@
         <v>93806</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>209</v>
@@ -3265,18 +3253,18 @@
         <v>216883</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3295,7 +3283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A4E2F6-983C-49EC-9572-D9B08B2169C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D801417-A6CA-4EAE-B88B-C01D2329E64E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3312,7 +3300,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3419,13 +3407,13 @@
         <v>14107</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>31</v>
@@ -3437,10 +3425,10 @@
         <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -3449,13 +3437,13 @@
         <v>46776</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3458,13 @@
         <v>6737</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -3485,13 +3473,13 @@
         <v>9090</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -3500,13 +3488,13 @@
         <v>15827</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3509,13 @@
         <v>43094</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H6" s="7">
         <v>55</v>
@@ -3536,10 +3524,10 @@
         <v>58173</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>181</v>
@@ -3623,13 +3611,13 @@
         <v>74807</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>106</v>
@@ -3638,13 +3626,13 @@
         <v>111866</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>175</v>
@@ -3653,18 +3641,18 @@
         <v>186673</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3706,13 +3694,13 @@
         <v>81133</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3715,13 @@
         <v>11278</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3742,13 +3730,13 @@
         <v>9928</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -3757,13 +3745,13 @@
         <v>21206</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3766,13 @@
         <v>110922</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -3793,13 +3781,13 @@
         <v>62701</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>167</v>
@@ -3808,13 +3796,13 @@
         <v>173622</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3817,13 @@
         <v>12379</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -3844,13 +3832,13 @@
         <v>7377</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -3859,13 +3847,13 @@
         <v>19756</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3868,13 @@
         <v>182014</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>107</v>
@@ -3895,13 +3883,13 @@
         <v>113703</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>285</v>
@@ -3910,18 +3898,18 @@
         <v>295717</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3933,13 +3921,13 @@
         <v>8874</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -3948,13 +3936,13 @@
         <v>5280</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -3963,13 +3951,13 @@
         <v>14154</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +3972,13 @@
         <v>5165</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -3999,13 +3987,13 @@
         <v>2822</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -4014,13 +4002,13 @@
         <v>7987</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,13 +4023,13 @@
         <v>12015</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -4050,13 +4038,13 @@
         <v>19675</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -4065,13 +4053,13 @@
         <v>31690</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4074,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4101,13 +4089,13 @@
         <v>998</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -4116,13 +4104,13 @@
         <v>998</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,13 +4125,13 @@
         <v>26054</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -4152,13 +4140,13 @@
         <v>28775</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>50</v>
@@ -4167,13 +4155,13 @@
         <v>54829</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4178,13 @@
         <v>70417</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -4205,13 +4193,13 @@
         <v>71646</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M19" s="7">
         <v>137</v>
@@ -4220,13 +4208,13 @@
         <v>142063</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4229,13 @@
         <v>23180</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -4256,13 +4244,13 @@
         <v>21840</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -4271,13 +4259,13 @@
         <v>45020</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>276</v>
+        <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4280,13 @@
         <v>166030</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>277</v>
       </c>
       <c r="H21" s="7">
         <v>131</v>
@@ -4307,13 +4295,13 @@
         <v>140550</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M21" s="7">
         <v>289</v>
@@ -4322,13 +4310,13 @@
         <v>306579</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4331,13 @@
         <v>23248</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -4358,13 +4346,13 @@
         <v>20308</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -4373,13 +4361,13 @@
         <v>43556</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4382,13 @@
         <v>282875</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>238</v>
@@ -4409,13 +4397,13 @@
         <v>254344</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>510</v>
@@ -4424,18 +4412,18 @@
         <v>537218</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4454,7 +4442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB084BC-43EF-4283-95EB-5EA3BC314446}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FBF135-7CB2-4116-A786-445403320842}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4471,7 +4459,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4578,10 +4566,10 @@
         <v>7295</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>296</v>
@@ -4611,10 +4599,10 @@
         <v>300</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4617,13 @@
         <v>9963</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -4644,13 +4632,13 @@
         <v>10544</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -4659,13 +4647,13 @@
         <v>20507</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4668,13 @@
         <v>22089</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -4695,13 +4683,13 @@
         <v>42815</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M6" s="7">
         <v>57</v>
@@ -4710,13 +4698,13 @@
         <v>64904</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4719,13 @@
         <v>6356</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4746,13 +4734,13 @@
         <v>7867</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>206</v>
+        <v>324</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>325</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -4761,13 +4749,13 @@
         <v>14223</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4770,13 @@
         <v>45703</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>63</v>
@@ -4797,13 +4785,13 @@
         <v>74602</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>112</v>
@@ -4812,18 +4800,18 @@
         <v>120305</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4835,13 +4823,13 @@
         <v>21541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -4850,13 +4838,13 @@
         <v>10581</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -4865,13 +4853,13 @@
         <v>32122</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4874,13 @@
         <v>11664</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4901,13 +4889,13 @@
         <v>6047</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -4916,13 +4904,13 @@
         <v>17711</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4925,13 @@
         <v>77915</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H11" s="7">
         <v>58</v>
@@ -4952,13 +4940,13 @@
         <v>61083</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M11" s="7">
         <v>131</v>
@@ -4967,13 +4955,13 @@
         <v>138999</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +4976,13 @@
         <v>10059</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -5003,13 +4991,13 @@
         <v>6946</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>221</v>
+        <v>359</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -5018,13 +5006,13 @@
         <v>17005</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>357</v>
+        <v>175</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5027,13 @@
         <v>121179</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
@@ -5054,13 +5042,13 @@
         <v>84657</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>195</v>
@@ -5069,18 +5057,18 @@
         <v>205837</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5092,13 +5080,13 @@
         <v>3552</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5107,13 +5095,13 @@
         <v>3146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -5122,13 +5110,13 @@
         <v>6698</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5131,13 @@
         <v>1926</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -5158,13 +5146,13 @@
         <v>1862</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -5173,13 +5161,13 @@
         <v>3788</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5182,13 @@
         <v>19368</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -5209,13 +5197,13 @@
         <v>19791</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -5224,13 +5212,13 @@
         <v>39159</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5233,13 @@
         <v>5950</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -5260,13 +5248,13 @@
         <v>6208</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -5275,13 +5263,13 @@
         <v>12158</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5284,13 @@
         <v>30796</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -5311,13 +5299,13 @@
         <v>31007</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -5326,13 +5314,13 @@
         <v>61803</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5337,13 @@
         <v>32388</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -5364,13 +5352,13 @@
         <v>27103</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -5379,13 +5367,13 @@
         <v>59491</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5388,13 @@
         <v>23553</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>402</v>
+        <v>11</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -5415,13 +5403,13 @@
         <v>18453</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -5430,13 +5418,13 @@
         <v>42006</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>191</v>
+        <v>412</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5439,13 @@
         <v>119373</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H21" s="7">
         <v>110</v>
@@ -5466,13 +5454,13 @@
         <v>123689</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M21" s="7">
         <v>224</v>
@@ -5481,13 +5469,13 @@
         <v>243062</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5490,13 @@
         <v>22365</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -5517,13 +5505,13 @@
         <v>21020</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>308</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -5532,13 +5520,13 @@
         <v>43385</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5541,13 @@
         <v>197679</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>171</v>
@@ -5568,13 +5556,13 @@
         <v>190266</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>362</v>
@@ -5583,18 +5571,18 @@
         <v>387945</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -5613,7 +5601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3477B4BD-128E-400D-9D26-F0426C2D00A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E0051-0764-49D1-AF27-601A6E287323}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5630,7 +5618,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5737,13 +5725,13 @@
         <v>10456</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -5752,13 +5740,13 @@
         <v>18651</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -5767,13 +5755,13 @@
         <v>29107</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5776,13 @@
         <v>5485</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -5803,13 +5791,13 @@
         <v>16521</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -5818,13 +5806,13 @@
         <v>22006</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5827,13 @@
         <v>9387</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="H6" s="7">
         <v>68</v>
@@ -5854,13 +5842,13 @@
         <v>37795</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="M6" s="7">
         <v>82</v>
@@ -5869,13 +5857,13 @@
         <v>47181</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5878,13 @@
         <v>10923</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>452</v>
+        <v>266</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -5905,13 +5893,13 @@
         <v>13423</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -5920,13 +5908,13 @@
         <v>24346</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +5929,13 @@
         <v>36251</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>157</v>
@@ -5956,13 +5944,13 @@
         <v>86390</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>210</v>
@@ -5971,18 +5959,18 @@
         <v>122640</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5994,13 +5982,13 @@
         <v>13770</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>129</v>
+        <v>468</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -6009,13 +5997,13 @@
         <v>20028</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="M9" s="7">
         <v>41</v>
@@ -6024,13 +6012,13 @@
         <v>33798</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,13 +6033,13 @@
         <v>10584</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>468</v>
+        <v>407</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>469</v>
+        <v>84</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -6060,13 +6048,13 @@
         <v>17507</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>471</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -6075,13 +6063,13 @@
         <v>28091</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,13 +6084,13 @@
         <v>91587</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>479</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>85</v>
@@ -6111,13 +6099,13 @@
         <v>62124</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M11" s="7">
         <v>167</v>
@@ -6126,13 +6114,13 @@
         <v>153712</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6135,13 @@
         <v>17243</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -6162,10 +6150,10 @@
         <v>11204</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>489</v>
+        <v>227</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>490</v>
+        <v>288</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>491</v>
@@ -6198,13 +6186,13 @@
         <v>133185</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>147</v>
@@ -6213,13 +6201,13 @@
         <v>110864</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>272</v>
@@ -6228,18 +6216,18 @@
         <v>244049</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6266,7 +6254,7 @@
         <v>5556</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>498</v>
@@ -6284,10 +6272,10 @@
         <v>500</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,13 +6290,13 @@
         <v>1278</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="H15" s="7">
         <v>13</v>
@@ -6317,13 +6305,13 @@
         <v>9180</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="M15" s="7">
         <v>15</v>
@@ -6332,13 +6320,13 @@
         <v>10459</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>508</v>
+        <v>378</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>65</v>
+        <v>507</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>509</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,13 +6341,13 @@
         <v>19376</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -6368,13 +6356,13 @@
         <v>16977</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -6383,13 +6371,13 @@
         <v>36353</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>518</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,13 +6392,13 @@
         <v>5708</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -6419,13 +6407,13 @@
         <v>1902</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -6434,13 +6422,13 @@
         <v>7610</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>524</v>
+        <v>301</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>366</v>
+        <v>521</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,13 +6443,13 @@
         <v>34154</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>53</v>
@@ -6470,13 +6458,13 @@
         <v>33616</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>86</v>
@@ -6485,13 +6473,13 @@
         <v>67770</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,13 +6496,13 @@
         <v>32018</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H19" s="7">
         <v>72</v>
@@ -6523,13 +6511,13 @@
         <v>44235</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -6538,13 +6526,13 @@
         <v>76253</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,13 +6547,13 @@
         <v>17347</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H20" s="7">
         <v>64</v>
@@ -6574,13 +6562,13 @@
         <v>43208</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="M20" s="7">
         <v>84</v>
@@ -6589,13 +6577,13 @@
         <v>60556</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,13 +6598,13 @@
         <v>120350</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H21" s="7">
         <v>180</v>
@@ -6625,13 +6613,13 @@
         <v>116896</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="M21" s="7">
         <v>296</v>
@@ -6640,13 +6628,13 @@
         <v>237246</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6649,13 @@
         <v>33874</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -6676,13 +6664,13 @@
         <v>26529</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>557</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -6691,13 +6679,13 @@
         <v>60404</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6700,13 @@
         <v>203590</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>357</v>
@@ -6727,13 +6715,13 @@
         <v>230869</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>568</v>
@@ -6742,18 +6730,18 @@
         <v>434459</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
